--- a/MakeAGame/LubanTool/GameConfig/Datas/__tables__.xlsx
+++ b/MakeAGame/LubanTool/GameConfig/Datas/__tables__.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="40">
   <si>
     <t>##var</t>
   </si>
@@ -122,6 +122,15 @@
   </si>
   <si>
     <t>Feature.xlsx</t>
+  </si>
+  <si>
+    <t>GameData.TbRelic</t>
+  </si>
+  <si>
+    <t>Relic</t>
+  </si>
+  <si>
+    <t>Relic.xlsx</t>
   </si>
 </sst>
 </file>
@@ -162,7 +171,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -272,13 +281,74 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="11"/>
+      </left>
+      <right style="thin">
+        <color indexed="11"/>
+      </right>
+      <top style="thin">
+        <color indexed="11"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="11"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="11"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="11"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -325,6 +395,39 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -346,6 +449,7 @@
       <rgbColor rgb="ff000000"/>
       <rgbColor rgb="ffffffff"/>
       <rgbColor rgb="ffaaaaaa"/>
+      <rgbColor rgb="ffa5a5a5"/>
     </indexedColors>
   </colors>
 </styleSheet>
@@ -1407,7 +1511,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:M5"/>
+  <dimension ref="A1:M10"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -1557,27 +1661,110 @@
       <c r="M4" s="13"/>
     </row>
     <row r="5" ht="16" customHeight="1">
-      <c r="A5" s="13"/>
-      <c r="B5" t="s" s="14">
+      <c r="A5" s="16"/>
+      <c r="B5" t="s" s="17">
         <v>34</v>
       </c>
-      <c r="C5" t="s" s="14">
+      <c r="C5" t="s" s="17">
         <v>35</v>
       </c>
-      <c r="D5" t="b" s="15">
+      <c r="D5" t="b" s="18">
         <v>1</v>
       </c>
-      <c r="E5" t="s" s="14">
+      <c r="E5" t="s" s="17">
         <v>36</v>
       </c>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="13"/>
-      <c r="L5" s="13"/>
-      <c r="M5" s="13"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="16"/>
+      <c r="K5" s="16"/>
+      <c r="L5" s="16"/>
+      <c r="M5" s="16"/>
+    </row>
+    <row r="6" ht="16" customHeight="1">
+      <c r="A6" s="19"/>
+      <c r="B6" t="s" s="20">
+        <v>37</v>
+      </c>
+      <c r="C6" t="s" s="20">
+        <v>38</v>
+      </c>
+      <c r="D6" t="b" s="21">
+        <v>1</v>
+      </c>
+      <c r="E6" t="s" s="20">
+        <v>39</v>
+      </c>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="19"/>
+      <c r="K6" s="19"/>
+      <c r="L6" s="19"/>
+      <c r="M6" s="19"/>
+    </row>
+    <row r="7" ht="16" customHeight="1">
+      <c r="A7" s="22"/>
+      <c r="B7" s="23"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="23"/>
+      <c r="I7" s="23"/>
+      <c r="J7" s="23"/>
+      <c r="K7" s="23"/>
+      <c r="L7" s="23"/>
+      <c r="M7" s="24"/>
+    </row>
+    <row r="8" ht="16" customHeight="1">
+      <c r="A8" s="25"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="8"/>
+    </row>
+    <row r="9" ht="16" customHeight="1">
+      <c r="A9" s="25"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="8"/>
+    </row>
+    <row r="10" ht="16" customHeight="1">
+      <c r="A10" s="26"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="10"/>
+      <c r="M10" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
